--- a/public/dashboard/excel-sheets-examples/coupons.xlsx
+++ b/public/dashboard/excel-sheets-examples/coupons.xlsx
@@ -24,9 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>MH1</t>
+  </si>
+  <si>
+    <t>Publisher ID (optional)</t>
+  </si>
+  <si>
+    <t>Coupon Code (Required)</t>
   </si>
 </sst>
 </file>
@@ -90,10 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,23 +384,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>22554</v>
+    <row r="1" spans="1:2" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
